--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q6_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q6_Final.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3068AD-AB26-4961-937F-E7AAEE1EA8E6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA2A9B-20C4-48BA-91F0-838042A51DDD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Assets</t>
   </si>
@@ -100,9 +100,6 @@
     <t>8.</t>
   </si>
   <si>
-    <t>9.</t>
-  </si>
-  <si>
     <t>Issue stock for cash, $6,500</t>
   </si>
   <si>
@@ -127,11 +124,11 @@
     <t>Ending balances before closing</t>
   </si>
   <si>
+    <t>Sold memberships for cash, $1,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Each row in the interactive grid below contains an accounting transaction in the first column. Complete each row by entering amounts under the two account columns that are relevant to the transaction. In the last row, calculate the ending balances similar to how you would in an Excel spreadsheet. </t>
-  </si>
-  <si>
-    <t>Sold memberships for cash, $1,000</t>
+Each row in the interactive grid below contains an accounting transaction in the first column. Complete each row by entering amounts under the two account columns that are relevant to the transaction. In the last row, calculate the ending balance for each account. </t>
   </si>
 </sst>
 </file>
@@ -211,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -310,6 +307,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -455,7 +463,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,6 +560,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1169,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="18">
         <v>6500</v>
@@ -1194,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="25">
         <v>-3000</v>
@@ -1219,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="25">
         <v>1000</v>
@@ -1244,7 +1256,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="19"/>
@@ -1269,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="25">
         <v>-200</v>
@@ -1294,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="25">
         <v>-500</v>
@@ -1319,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="19"/>
@@ -1344,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="26">
         <v>1500</v>
@@ -1365,43 +1377,41 @@
       <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="26">
+        <v>29</v>
+      </c>
+      <c r="C13" s="33">
         <f>SUM(C5:C12)</f>
         <v>5300</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="26">
+      <c r="E13" s="33">
         <f>SUM(E5:E12)</f>
         <v>1500</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="26">
+      <c r="G13" s="33">
         <f>SUM(G5:G12)</f>
         <v>200</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="26">
+      <c r="I13" s="33">
         <f>SUM(I5:I12)</f>
         <v>6500</v>
       </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="26">
+      <c r="K13" s="33">
         <f>SUM(K5:K12)</f>
         <v>4000</v>
       </c>
       <c r="L13" s="22"/>
-      <c r="M13" s="26">
+      <c r="M13" s="33">
         <f>SUM(M5:M12)</f>
         <v>3000</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="26">
+      <c r="O13" s="33">
         <f>SUM(O5:O12)</f>
         <v>900</v>
       </c>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q6_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q6_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA2A9B-20C4-48BA-91F0-838042A51DDD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369D632F-DA86-44E6-BBF7-82ECDE0554CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Assets</t>
   </si>
@@ -125,10 +125,6 @@
   </si>
   <si>
     <t>Sold memberships for cash, $1,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Each row in the interactive grid below contains an accounting transaction in the first column. Complete each row by entering amounts under the two account columns that are relevant to the transaction. In the last row, calculate the ending balance for each account. </t>
   </si>
 </sst>
 </file>
@@ -463,7 +459,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -486,7 +482,6 @@
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,27 +538,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="37" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1053,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1074,360 +1057,338 @@
     <col min="16" max="16" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+    <row r="1" spans="1:15" ht="35.1" customHeight="1" thickBot="1">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1">
+    <row r="2" spans="1:15" ht="40.5" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+    <row r="3" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="17">
+        <v>6500</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17">
+        <v>6500</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15" ht="40.5" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="24">
+        <v>-3000</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="24">
+        <v>3000</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="18">
-        <v>6500</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18">
-        <v>6500</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="18"/>
+      <c r="A5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="24">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
     </row>
-    <row r="6" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="25">
-        <v>-3000</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="25">
-        <v>3000</v>
-      </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
+    <row r="6" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="24">
+        <v>700</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24">
+        <v>700</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="25">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="25">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
+    <row r="7" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="24">
+        <v>-200</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24">
+        <v>200</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="25">
-        <v>700</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25">
-        <v>700</v>
-      </c>
+    <row r="8" spans="1:15" ht="24" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="24">
+        <v>-500</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="24">
+        <v>-500</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="25">
-        <v>-200</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25">
-        <v>200</v>
-      </c>
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="24">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>25</v>
+    <row r="10" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="25">
-        <v>-500</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="25">
-        <v>-500</v>
-      </c>
-      <c r="H10" s="20"/>
+        <v>1500</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="25">
+        <v>-1500</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="22"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="24"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="25">
+    <row r="11" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="26">
+        <f>SUM(C3:C10)</f>
+        <v>5300</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="26">
+        <f>SUM(E3:E10)</f>
+        <v>1500</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26">
+        <f>SUM(G3:G10)</f>
+        <v>200</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="26">
+        <f>SUM(I3:I10)</f>
+        <v>6500</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="26">
+        <f>SUM(K3:K10)</f>
+        <v>4000</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="26">
+        <f>SUM(M3:M10)</f>
         <v>3000</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="25">
-        <v>3000</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="26">
+        <f>SUM(O3:O10)</f>
+        <v>900</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="26">
-        <v>1500</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="26">
-        <v>-1500</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="33">
-        <f>SUM(C5:C12)</f>
-        <v>5300</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="33">
-        <f>SUM(E5:E12)</f>
-        <v>1500</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="33">
-        <f>SUM(G5:G12)</f>
-        <v>200</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="33">
-        <f>SUM(I5:I12)</f>
-        <v>6500</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="33">
-        <f>SUM(K5:K12)</f>
-        <v>4000</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="33">
-        <f>SUM(M5:M12)</f>
-        <v>3000</v>
-      </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="33">
-        <f>SUM(O5:O12)</f>
-        <v>900</v>
-      </c>
+    <row r="12" spans="1:15" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A1:O1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A3" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q6_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q6_Final.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369D632F-DA86-44E6-BBF7-82ECDE0554CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C2C45-3CA7-4AF7-9E97-027B4ABAF2C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -115,16 +115,16 @@
     <t>Received cash on account, $1,500</t>
   </si>
   <si>
-    <t>Sold to customers on credit account, $3000</t>
-  </si>
-  <si>
     <t>Paid cash for rent, $3,000</t>
   </si>
   <si>
-    <t>Ending balances before closing</t>
-  </si>
-  <si>
     <t>Sold memberships for cash, $1,000</t>
+  </si>
+  <si>
+    <t>Ending balances</t>
+  </si>
+  <si>
+    <t>Sold to customers on credit account, $3,000</t>
   </si>
 </sst>
 </file>
@@ -1039,13 +1039,13 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="45.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="24">
         <v>-3000</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="24">
         <v>1000</v>
@@ -1278,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="18"/>
